--- a/public/static/templates/快递模板.xlsx
+++ b/public/static/templates/快递模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="23040" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1006,7 +1008,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/public/static/templates/快递模板.xlsx
+++ b/public/static/templates/快递模板.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>快递单号（必填）</t>
+    <t>快递单号</t>
   </si>
   <si>
-    <t>快递重量（必填）</t>
+    <t>快递重量</t>
   </si>
 </sst>
 </file>
@@ -32,7 +32,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,12 +58,6 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -525,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,33 +531,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,118 +570,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1005,16 +996,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="36.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.1111111111111" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.3333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:2">
@@ -1025,10 +1016,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
